--- a/biology/Botanique/Habitats_floristiques_du_Québec/Habitats_floristiques_du_Québec.xlsx
+++ b/biology/Botanique/Habitats_floristiques_du_Québec/Habitats_floristiques_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Habitats_floristiques_du_Qu%C3%A9bec</t>
+          <t>Habitats_floristiques_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les habitats floristiques[1] du Québec sont des aires protégées qui abritent au moins une espèce floristique désignée menacée ou vulnérable. Ces espèces floristiques sont identifiées à l’article 7 du Règlement sur les espèces floristiques menacées ou vulnérables et leurs habitats[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les habitats floristiques du Québec sont des aires protégées qui abritent au moins une espèce floristique désignée menacée ou vulnérable. Ces espèces floristiques sont identifiées à l’article 7 du Règlement sur les espèces floristiques menacées ou vulnérables et leurs habitats.
 Au 25 janvier 2022, le Québec comptait 52 habitats floristiques couvrant une superficie totale de plus de 5000 hectares (environ 50 km2).
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Habitats_floristiques_du_Qu%C3%A9bec</t>
+          <t>Habitats_floristiques_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste des habitats floristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste suivante répertorie les habitats floristiques du Québec[3],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les habitats floristiques du Québec,.
 </t>
         </is>
       </c>
